--- a/data/final_scraped_1200/Christina1789-1888v2.xlsx
+++ b/data/final_scraped_1200/Christina1789-1888v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bowiechuang/Documents/GitHub/Skin_Care_Recommendation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bowiechuang/Documents/GitHub/Skin_Care_Recommendation/data/final_scraped_1200/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D235E43-0E37-C949-8927-BACBC1B03E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4032A0-A7A6-5E4D-B7A3-A09EF3286B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2075,7 +2075,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A1:L74"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
